--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il4-Il13ra1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il4-Il13ra1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.205579</v>
+        <v>0.3205216666666666</v>
       </c>
       <c r="H2">
-        <v>0.616737</v>
+        <v>0.961565</v>
       </c>
       <c r="I2">
-        <v>0.09194453484625968</v>
+        <v>0.1355444593128396</v>
       </c>
       <c r="J2">
-        <v>0.09194453484625968</v>
+        <v>0.1355444593128396</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.31594</v>
+        <v>2.031394333333334</v>
       </c>
       <c r="N2">
-        <v>78.94782000000001</v>
+        <v>6.094183</v>
       </c>
       <c r="O2">
-        <v>0.645121481976565</v>
+        <v>0.1230522080665953</v>
       </c>
       <c r="P2">
-        <v>0.645121481976565</v>
+        <v>0.1230522080665953</v>
       </c>
       <c r="Q2">
-        <v>5.410004629259999</v>
+        <v>0.6511058973772222</v>
       </c>
       <c r="R2">
-        <v>48.69004166334</v>
+        <v>5.859953076395001</v>
       </c>
       <c r="S2">
-        <v>0.05931539457966497</v>
+        <v>0.01667904500963769</v>
       </c>
       <c r="T2">
-        <v>0.05931539457966497</v>
+        <v>0.01667904500963769</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.205579</v>
+        <v>0.3205216666666666</v>
       </c>
       <c r="H3">
-        <v>0.616737</v>
+        <v>0.961565</v>
       </c>
       <c r="I3">
-        <v>0.09194453484625968</v>
+        <v>0.1355444593128396</v>
       </c>
       <c r="J3">
-        <v>0.09194453484625968</v>
+        <v>0.1355444593128396</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>31.904868</v>
       </c>
       <c r="O3">
-        <v>0.2607103746047286</v>
+        <v>0.6442150581092261</v>
       </c>
       <c r="P3">
-        <v>0.2607103746047286</v>
+        <v>0.6442150581092261</v>
       </c>
       <c r="Q3">
-        <v>2.186323619524</v>
+        <v>3.408733822046667</v>
       </c>
       <c r="R3">
-        <v>19.676912575716</v>
+        <v>30.67860439842</v>
       </c>
       <c r="S3">
-        <v>0.02397089412262588</v>
+        <v>0.08731978173260457</v>
       </c>
       <c r="T3">
-        <v>0.02397089412262588</v>
+        <v>0.08731978173260457</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.205579</v>
+        <v>0.3205216666666666</v>
       </c>
       <c r="H4">
-        <v>0.616737</v>
+        <v>0.961565</v>
       </c>
       <c r="I4">
-        <v>0.09194453484625968</v>
+        <v>0.1355444593128396</v>
       </c>
       <c r="J4">
-        <v>0.09194453484625968</v>
+        <v>0.1355444593128396</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.841328</v>
+        <v>3.842043666666667</v>
       </c>
       <c r="N4">
-        <v>11.523984</v>
+        <v>11.526131</v>
       </c>
       <c r="O4">
-        <v>0.09416814341870648</v>
+        <v>0.2327327338241786</v>
       </c>
       <c r="P4">
-        <v>0.09416814341870647</v>
+        <v>0.2327327338241786</v>
       </c>
       <c r="Q4">
-        <v>0.789696368912</v>
+        <v>1.231458239446111</v>
       </c>
       <c r="R4">
-        <v>7.107267320208</v>
+        <v>11.083124155015</v>
       </c>
       <c r="S4">
-        <v>0.008658246143968838</v>
+        <v>0.03154563257059729</v>
       </c>
       <c r="T4">
-        <v>0.008658246143968837</v>
+        <v>0.0315456325705973</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3.287105</v>
       </c>
       <c r="I5">
-        <v>0.4900489839523402</v>
+        <v>0.4633580360449179</v>
       </c>
       <c r="J5">
-        <v>0.4900489839523402</v>
+        <v>0.4633580360449179</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.31594</v>
+        <v>2.031394333333334</v>
       </c>
       <c r="N5">
-        <v>78.94782000000001</v>
+        <v>6.094183</v>
       </c>
       <c r="O5">
-        <v>0.645121481976565</v>
+        <v>0.1230522080665953</v>
       </c>
       <c r="P5">
-        <v>0.645121481976565</v>
+        <v>0.1230522080665953</v>
       </c>
       <c r="Q5">
-        <v>28.8344193179</v>
+        <v>2.225802156690555</v>
       </c>
       <c r="R5">
-        <v>259.5097738611</v>
+        <v>20.032219410215</v>
       </c>
       <c r="S5">
-        <v>0.3161411267684436</v>
+        <v>0.05701722946072819</v>
       </c>
       <c r="T5">
-        <v>0.3161411267684436</v>
+        <v>0.0570172294607282</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.287105</v>
       </c>
       <c r="I6">
-        <v>0.4900489839523402</v>
+        <v>0.4633580360449179</v>
       </c>
       <c r="J6">
-        <v>0.4900489839523402</v>
+        <v>0.4633580360449179</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>31.904868</v>
       </c>
       <c r="O6">
-        <v>0.2607103746047286</v>
+        <v>0.6442150581092261</v>
       </c>
       <c r="P6">
-        <v>0.2607103746047286</v>
+        <v>0.6442150581092261</v>
       </c>
       <c r="Q6">
         <v>11.65273901412667</v>
@@ -818,10 +818,10 @@
         <v>104.87465112714</v>
       </c>
       <c r="S6">
-        <v>0.1277608541808813</v>
+        <v>0.2985022241160537</v>
       </c>
       <c r="T6">
-        <v>0.1277608541808812</v>
+        <v>0.2985022241160537</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.287105</v>
       </c>
       <c r="I7">
-        <v>0.4900489839523402</v>
+        <v>0.4633580360449179</v>
       </c>
       <c r="J7">
-        <v>0.4900489839523402</v>
+        <v>0.4633580360449179</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.841328</v>
+        <v>3.842043666666667</v>
       </c>
       <c r="N7">
-        <v>11.523984</v>
+        <v>11.526131</v>
       </c>
       <c r="O7">
-        <v>0.09416814341870648</v>
+        <v>0.2327327338241786</v>
       </c>
       <c r="P7">
-        <v>0.09416814341870647</v>
+        <v>0.2327327338241786</v>
       </c>
       <c r="Q7">
-        <v>4.208949491813334</v>
+        <v>4.209733648972778</v>
       </c>
       <c r="R7">
-        <v>37.88054542632</v>
+        <v>37.887602840755</v>
       </c>
       <c r="S7">
-        <v>0.04614700300301536</v>
+        <v>0.107838582468136</v>
       </c>
       <c r="T7">
-        <v>0.04614700300301536</v>
+        <v>0.107838582468136</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,22 +900,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9346216666666667</v>
+        <v>0.9484743333333334</v>
       </c>
       <c r="H8">
-        <v>2.803865</v>
+        <v>2.845423</v>
       </c>
       <c r="I8">
-        <v>0.4180064812014002</v>
+        <v>0.4010975046422426</v>
       </c>
       <c r="J8">
-        <v>0.4180064812014001</v>
+        <v>0.4010975046422425</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.31594</v>
+        <v>2.031394333333334</v>
       </c>
       <c r="N8">
-        <v>78.94782000000001</v>
+        <v>6.094183</v>
       </c>
       <c r="O8">
-        <v>0.645121481976565</v>
+        <v>0.1230522080665953</v>
       </c>
       <c r="P8">
-        <v>0.645121481976565</v>
+        <v>0.1230522080665953</v>
       </c>
       <c r="Q8">
-        <v>24.5954477027</v>
+        <v>1.926725386045445</v>
       </c>
       <c r="R8">
-        <v>221.3590293243</v>
+        <v>17.340528474409</v>
       </c>
       <c r="S8">
-        <v>0.2696649606284565</v>
+        <v>0.0493559335962294</v>
       </c>
       <c r="T8">
-        <v>0.2696649606284564</v>
+        <v>0.0493559335962294</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9346216666666667</v>
+        <v>0.9484743333333334</v>
       </c>
       <c r="H9">
-        <v>2.803865</v>
+        <v>2.845423</v>
       </c>
       <c r="I9">
-        <v>0.4180064812014002</v>
+        <v>0.4010975046422426</v>
       </c>
       <c r="J9">
-        <v>0.4180064812014001</v>
+        <v>0.4010975046422425</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>31.904868</v>
       </c>
       <c r="O9">
-        <v>0.2607103746047286</v>
+        <v>0.6442150581092261</v>
       </c>
       <c r="P9">
-        <v>0.2607103746047286</v>
+        <v>0.6442150581092261</v>
       </c>
       <c r="Q9">
-        <v>9.939660301646667</v>
+        <v>10.08698280212933</v>
       </c>
       <c r="R9">
-        <v>89.45694271482</v>
+        <v>90.782845219164</v>
       </c>
       <c r="S9">
-        <v>0.1089786263012215</v>
+        <v>0.2583930522605679</v>
       </c>
       <c r="T9">
-        <v>0.1089786263012214</v>
+        <v>0.2583930522605679</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9346216666666667</v>
+        <v>0.9484743333333334</v>
       </c>
       <c r="H10">
-        <v>2.803865</v>
+        <v>2.845423</v>
       </c>
       <c r="I10">
-        <v>0.4180064812014002</v>
+        <v>0.4010975046422426</v>
       </c>
       <c r="J10">
-        <v>0.4180064812014001</v>
+        <v>0.4010975046422425</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.841328</v>
+        <v>3.842043666666667</v>
       </c>
       <c r="N10">
-        <v>11.523984</v>
+        <v>11.526131</v>
       </c>
       <c r="O10">
-        <v>0.09416814341870648</v>
+        <v>0.2327327338241786</v>
       </c>
       <c r="P10">
-        <v>0.09416814341870647</v>
+        <v>0.2327327338241786</v>
       </c>
       <c r="Q10">
-        <v>3.590188377573334</v>
+        <v>3.644079805379223</v>
       </c>
       <c r="R10">
-        <v>32.31169539816</v>
+        <v>32.79671824841301</v>
       </c>
       <c r="S10">
-        <v>0.03936289427172229</v>
+        <v>0.09334851878544527</v>
       </c>
       <c r="T10">
-        <v>0.03936289427172227</v>
+        <v>0.09334851878544527</v>
       </c>
     </row>
   </sheetData>
